--- a/MDA-MB-231-Cell-Count-Data/GH1909_200nM_working_mod_8_22.xlsx
+++ b/MDA-MB-231-Cell-Count-Data/GH1909_200nM_working_mod_8_22.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grh57\Documents\MATLAB\2020 Incucyte Data Cal-Val\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grh57\Desktop\Cell Count Data (Final MATLAB Format) v2\231\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -342,31 +342,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="A1:H1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1826</v>
+        <v>1556.4409509202455</v>
       </c>
       <c r="C1">
-        <v>1940</v>
+        <v>1545.9411979992681</v>
       </c>
       <c r="D1">
-        <v>2136</v>
+        <v>1790.2219071251329</v>
       </c>
       <c r="E1">
-        <v>2065</v>
+        <v>1685.4404598275642</v>
       </c>
       <c r="F1">
-        <v>1858</v>
+        <v>1562.4038911464106</v>
       </c>
       <c r="G1">
-        <v>1746</v>
+        <v>1382.1258043335522</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -374,22 +379,22 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1764</v>
+        <v>1503.5935582822087</v>
       </c>
       <c r="C2">
-        <v>2007</v>
+        <v>1599.331950713676</v>
       </c>
       <c r="D2">
-        <v>2178</v>
+        <v>1825.4228996809643</v>
       </c>
       <c r="E2">
-        <v>2090</v>
+        <v>1705.845308009496</v>
       </c>
       <c r="F2">
-        <v>1872</v>
+        <v>1574.1765792390099</v>
       </c>
       <c r="G2">
-        <v>1804</v>
+        <v>1428.0383453709783</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -397,22 +402,22 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>1848</v>
+        <v>1575.1932515337423</v>
       </c>
       <c r="C3">
-        <v>2038</v>
+        <v>1624.0351348054169</v>
       </c>
       <c r="D3">
-        <v>2241</v>
+        <v>1878.2243885147111</v>
       </c>
       <c r="E3">
-        <v>2120</v>
+        <v>1730.331125827814</v>
       </c>
       <c r="F3">
-        <v>1957</v>
+        <v>1645.653614086935</v>
       </c>
       <c r="G3">
-        <v>1847</v>
+        <v>1462.0769533814837</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -420,22 +425,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1950</v>
+        <v>1662.1357361963192</v>
       </c>
       <c r="C4">
-        <v>2100</v>
+        <v>1673.4415029888985</v>
       </c>
       <c r="D4">
-        <v>2303</v>
+        <v>1930.1877584780812</v>
       </c>
       <c r="E4">
-        <v>2206</v>
+        <v>1800.5238035736593</v>
       </c>
       <c r="F4">
-        <v>2045</v>
+        <v>1719.6533678118458</v>
       </c>
       <c r="G4">
-        <v>1903</v>
+        <v>1506.4063033486539</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -443,22 +448,22 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>2058</v>
+        <v>1754.1924846625768</v>
       </c>
       <c r="C5">
-        <v>2224</v>
+        <v>1772.254239355862</v>
       </c>
       <c r="D5">
-        <v>2356</v>
+        <v>1974.6080586080586</v>
       </c>
       <c r="E5">
-        <v>2310</v>
+        <v>1885.4079720104955</v>
       </c>
       <c r="F5">
-        <v>2143</v>
+        <v>1802.0621844600419</v>
       </c>
       <c r="G5">
-        <v>2014</v>
+        <v>1594.273407747866</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -466,22 +471,22 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>2160</v>
+        <v>1841.1349693251534</v>
       </c>
       <c r="C6">
-        <v>2324</v>
+        <v>1851.9419299743811</v>
       </c>
       <c r="D6">
-        <v>2447</v>
+        <v>2050.8768758123597</v>
       </c>
       <c r="E6">
-        <v>2408</v>
+        <v>1965.3949768836681</v>
       </c>
       <c r="F6">
-        <v>2274</v>
+        <v>1912.2209087550793</v>
       </c>
       <c r="G6">
-        <v>2087</v>
+        <v>1652.0598818122126</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -489,22 +494,22 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>2246</v>
+        <v>1914.4394171779143</v>
       </c>
       <c r="C7">
-        <v>2441</v>
+        <v>1945.1765279980482</v>
       </c>
       <c r="D7">
-        <v>2563</v>
+        <v>2148.0986647760842</v>
       </c>
       <c r="E7">
-        <v>2472</v>
+        <v>2017.6313882294132</v>
       </c>
       <c r="F7">
-        <v>2344</v>
+        <v>1971.0843492180766</v>
       </c>
       <c r="G7">
-        <v>2219</v>
+        <v>1756.5504924491133</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -512,22 +517,22 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>2310</v>
+        <v>1968.9915644171779</v>
       </c>
       <c r="C8">
-        <v>2530</v>
+        <v>2016.0985726485301</v>
       </c>
       <c r="D8">
-        <v>2648</v>
+        <v>2219.3387687581235</v>
       </c>
       <c r="E8">
-        <v>2558</v>
+        <v>2087.8240659752587</v>
       </c>
       <c r="F8">
-        <v>2465</v>
+        <v>2072.8340105898287</v>
       </c>
       <c r="G8">
-        <v>2301</v>
+        <v>1821.4613263296123</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -535,22 +540,22 @@
         <v>24</v>
       </c>
       <c r="B9">
-        <v>2439</v>
+        <v>2078.9482361963192</v>
       </c>
       <c r="C9">
-        <v>2645</v>
+        <v>2107.7394168598271</v>
       </c>
       <c r="D9">
-        <v>2797</v>
+        <v>2344.2184804442868</v>
       </c>
       <c r="E9">
-        <v>2646</v>
+        <v>2159.6491315756584</v>
       </c>
       <c r="F9">
-        <v>2560</v>
+        <v>2152.7201083610394</v>
       </c>
       <c r="G9">
-        <v>2402</v>
+        <v>1901.4124753775441</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -558,22 +563,22 @@
         <v>27</v>
       </c>
       <c r="B10">
-        <v>2593</v>
+        <v>2210.2143404907974</v>
       </c>
       <c r="C10">
-        <v>2792</v>
+        <v>2224.8803220690497</v>
       </c>
       <c r="D10">
-        <v>2925</v>
+        <v>2451.4976958525344</v>
       </c>
       <c r="E10">
-        <v>2803</v>
+        <v>2287.7915781581901</v>
       </c>
       <c r="F10">
-        <v>2706</v>
+        <v>2275.4924270410047</v>
       </c>
       <c r="G10">
-        <v>2571</v>
+        <v>2035.1921208141823</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -581,22 +586,22 @@
         <v>30</v>
       </c>
       <c r="B11">
-        <v>2824</v>
+        <v>2407.1134969325153</v>
       </c>
       <c r="C11">
-        <v>2975</v>
+        <v>2370.7087959009395</v>
       </c>
       <c r="D11">
-        <v>3147</v>
+        <v>2637.5600850762139</v>
       </c>
       <c r="E11">
-        <v>2985</v>
+        <v>2436.3388729226531</v>
       </c>
       <c r="F11">
-        <v>2935</v>
+        <v>2468.0599679842385</v>
       </c>
       <c r="G11">
-        <v>2794</v>
+        <v>2211.7179251477346</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -604,22 +609,22 @@
         <v>33</v>
       </c>
       <c r="B12">
-        <v>2987</v>
+        <v>2546.0509969325153</v>
       </c>
       <c r="C12">
-        <v>3141</v>
+        <v>2502.9903623276809</v>
       </c>
       <c r="D12">
-        <v>3348</v>
+        <v>2806.0219780219782</v>
       </c>
       <c r="E12">
-        <v>3212</v>
+        <v>2621.6148944145939</v>
       </c>
       <c r="F12">
-        <v>3056</v>
+        <v>2569.8096293559906</v>
       </c>
       <c r="G12">
-        <v>2917</v>
+        <v>2309.0841759684831</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -627,22 +632,22 @@
         <v>36</v>
       </c>
       <c r="B13">
-        <v>3172</v>
+        <v>2703.7407975460123</v>
       </c>
       <c r="C13">
-        <v>3355</v>
+        <v>2673.5220202513119</v>
       </c>
       <c r="D13">
-        <v>3531</v>
+        <v>2959.3977313009573</v>
       </c>
       <c r="E13">
-        <v>3427</v>
+        <v>2797.0965887792067</v>
       </c>
       <c r="F13">
-        <v>3268</v>
+        <v>2748.0817633296392</v>
       </c>
       <c r="G13">
-        <v>3100</v>
+        <v>2453.9461588969139</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -650,22 +655,22 @@
         <v>39</v>
       </c>
       <c r="B14">
-        <v>3361</v>
+        <v>2864.8401073619634</v>
       </c>
       <c r="C14">
-        <v>3554</v>
+        <v>2832.1005245821643</v>
       </c>
       <c r="D14">
-        <v>3787</v>
+        <v>3173.9561621174525</v>
       </c>
       <c r="E14">
-        <v>3660</v>
+        <v>2987.2697738348111</v>
       </c>
       <c r="F14">
-        <v>3498</v>
+        <v>2941.4902105652013</v>
       </c>
       <c r="G14">
-        <v>3310</v>
+        <v>2620.1812212738014</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -673,22 +678,22 @@
         <v>42</v>
       </c>
       <c r="B15">
-        <v>3558</v>
+        <v>3032.7584355828221</v>
       </c>
       <c r="C15">
-        <v>3736</v>
+        <v>2977.1321215078692</v>
       </c>
       <c r="D15">
-        <v>3939</v>
+        <v>3301.3502304147464</v>
       </c>
       <c r="E15">
-        <v>3796</v>
+        <v>3098.2721479445199</v>
       </c>
       <c r="F15">
-        <v>3726</v>
+        <v>3133.2168452161063</v>
       </c>
       <c r="G15">
-        <v>3494</v>
+        <v>2765.8347997373603</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -696,22 +701,22 @@
         <v>44.966666666666697</v>
       </c>
       <c r="B16">
-        <v>3744</v>
+        <v>3191.3006134969328</v>
       </c>
       <c r="C16">
-        <v>3930</v>
+        <v>3131.7262413077956</v>
       </c>
       <c r="D16">
-        <v>4118</v>
+        <v>3451.373508212218</v>
       </c>
       <c r="E16">
-        <v>3818</v>
+        <v>3116.22841434462</v>
       </c>
       <c r="F16">
-        <v>3907</v>
+        <v>3285.4208841275704</v>
       </c>
       <c r="G16">
-        <v>3581</v>
+        <v>2834.7036112934993</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -719,22 +724,22 @@
         <v>47.966666666666697</v>
       </c>
       <c r="B17">
-        <v>3820</v>
+        <v>3256.0812883435583</v>
       </c>
       <c r="C17">
-        <v>3994</v>
+        <v>3182.7263633036478</v>
       </c>
       <c r="D17">
-        <v>4153</v>
+        <v>3480.7076686754108</v>
       </c>
       <c r="E17">
-        <v>3834</v>
+        <v>3129.287517181056</v>
       </c>
       <c r="F17">
-        <v>3913</v>
+        <v>3290.4663218815417</v>
       </c>
       <c r="G17">
-        <v>3650</v>
+        <v>2889.3237032173338</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -742,22 +747,22 @@
         <v>50.966666666666697</v>
       </c>
       <c r="B18">
-        <v>3851</v>
+        <v>3282.5049846625766</v>
       </c>
       <c r="C18">
-        <v>4016</v>
+        <v>3200.2576552397222</v>
       </c>
       <c r="D18">
-        <v>4212</v>
+        <v>3530.1566820276498</v>
       </c>
       <c r="E18">
-        <v>3890</v>
+        <v>3174.9943771085832</v>
       </c>
       <c r="F18">
-        <v>3983</v>
+        <v>3349.3297623445387</v>
       </c>
       <c r="G18">
-        <v>3689</v>
+        <v>2920.1959290873274</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -765,22 +770,22 @@
         <v>53.966666666666697</v>
       </c>
       <c r="B19">
-        <v>3873</v>
+        <v>3301.2572852760736</v>
       </c>
       <c r="C19">
-        <v>4072</v>
+        <v>3244.8827619860926</v>
       </c>
       <c r="D19">
-        <v>4243</v>
+        <v>3556.1383670093346</v>
       </c>
       <c r="E19">
-        <v>3941</v>
+        <v>3216.6202673997241</v>
       </c>
       <c r="F19">
-        <v>4036</v>
+        <v>3393.897795837951</v>
       </c>
       <c r="G19">
-        <v>3746</v>
+        <v>2965.3168745896255</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -788,22 +793,22 @@
         <v>56.966666666666697</v>
       </c>
       <c r="B20">
-        <v>3873</v>
+        <v>3301.2572852760736</v>
       </c>
       <c r="C20">
-        <v>4094</v>
+        <v>3262.4140539221671</v>
       </c>
       <c r="D20">
-        <v>4241</v>
+        <v>3554.4621292685811</v>
       </c>
       <c r="E20">
-        <v>3973</v>
+        <v>3242.7384730725967</v>
       </c>
       <c r="F20">
-        <v>4055</v>
+        <v>3409.8750153921928</v>
       </c>
       <c r="G20">
-        <v>3751</v>
+        <v>2969.2748522652655</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -811,22 +816,22 @@
         <v>59.966666666666697</v>
       </c>
       <c r="B21">
-        <v>3897</v>
+        <v>3321.7143404907974</v>
       </c>
       <c r="C21">
-        <v>4120</v>
+        <v>3283.1328534829818</v>
       </c>
       <c r="D21">
-        <v>4237</v>
+        <v>3551.1096537870731</v>
       </c>
       <c r="E21">
-        <v>3972</v>
+        <v>3241.9222791453194</v>
       </c>
       <c r="F21">
-        <v>4060</v>
+        <v>3414.0795468538358</v>
       </c>
       <c r="G21">
-        <v>3766</v>
+        <v>2981.1487852921864</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -834,22 +839,22 @@
         <v>62.966666666666697</v>
       </c>
       <c r="B22">
-        <v>3918</v>
+        <v>3339.6142638036813</v>
       </c>
       <c r="C22">
-        <v>4115</v>
+        <v>3279.1484689520557</v>
       </c>
       <c r="D22">
-        <v>4230</v>
+        <v>3545.2428216944345</v>
       </c>
       <c r="E22">
-        <v>3973</v>
+        <v>3242.7384730725967</v>
       </c>
       <c r="F22">
-        <v>4080</v>
+        <v>3430.8976727004065</v>
       </c>
       <c r="G22">
-        <v>3779</v>
+        <v>2991.4395272488505</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -857,22 +862,22 @@
         <v>65.966666666666697</v>
       </c>
       <c r="B23">
-        <v>3914</v>
+        <v>3336.2047546012273</v>
       </c>
       <c r="C23">
-        <v>4104</v>
+        <v>3270.3828229840187</v>
       </c>
       <c r="D23">
-        <v>4231</v>
+        <v>3546.0809405648115</v>
       </c>
       <c r="E23">
-        <v>3992</v>
+        <v>3258.2461576908649</v>
       </c>
       <c r="F23">
-        <v>4067</v>
+        <v>3419.9658909001355</v>
       </c>
       <c r="G23">
-        <v>3798</v>
+        <v>3006.4798424162832</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
